--- a/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.62996781519864</v>
+        <v>91.58143709431906</v>
       </c>
       <c r="D2" t="n">
-        <v>22.89523789747039</v>
+        <v>23.73430607220234</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.02969678432763</v>
+        <v>90.56826697677819</v>
       </c>
       <c r="D3" t="n">
-        <v>22.18109930648533</v>
+        <v>23.90043228076345</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.30229588673427</v>
+        <v>87.92657431777796</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22925068952847</v>
+        <v>20.60732090459247</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.834838247883</v>
+        <v>92.45662146353054</v>
       </c>
       <c r="D5" t="n">
-        <v>25.57037258868492</v>
+        <v>20.55292768515795</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.01303641081614</v>
+        <v>88.32234690885447</v>
       </c>
       <c r="D6" t="n">
-        <v>25.26778639953286</v>
+        <v>22.42796903490528</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>92.90647905145532</v>
+        <v>85.67972136560455</v>
       </c>
       <c r="D7" t="n">
-        <v>22.58087600772557</v>
+        <v>22.1118133975237</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>91.96255759308555</v>
+        <v>84.89161703377904</v>
       </c>
       <c r="D8" t="n">
-        <v>24.66799492102442</v>
+        <v>21.00452729543873</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.56703885105735</v>
+        <v>85.21874796835799</v>
       </c>
       <c r="D9" t="n">
-        <v>21.23872921120155</v>
+        <v>20.34565118107627</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.47819616926355</v>
+        <v>85.97698094412445</v>
       </c>
       <c r="D10" t="n">
-        <v>24.64900596825377</v>
+        <v>21.44053077004332</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>87.15767835768941</v>
+        <v>85.37343042051504</v>
       </c>
       <c r="D11" t="n">
-        <v>21.68458637942977</v>
+        <v>21.69826552128882</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>77.73552505887726</v>
+        <v>83.31426774390201</v>
       </c>
       <c r="D12" t="n">
-        <v>23.66227761881048</v>
+        <v>21.19815202646266</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.28746573450512</v>
+        <v>82.22451362905299</v>
       </c>
       <c r="D13" t="n">
-        <v>23.54451798088263</v>
+        <v>21.07175383635981</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.97899156203582</v>
+        <v>77.45331356781891</v>
       </c>
       <c r="D14" t="n">
-        <v>21.06916173509487</v>
+        <v>20.11946958486751</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.02889500429177</v>
+        <v>77.50159846790791</v>
       </c>
       <c r="D15" t="n">
-        <v>26.07690964028982</v>
+        <v>19.04711369918535</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.4842666643105</v>
+        <v>74.48757246640457</v>
       </c>
       <c r="D16" t="n">
-        <v>22.82192522152226</v>
+        <v>20.16999417396558</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.13474120561708</v>
+        <v>74.07131045260846</v>
       </c>
       <c r="D17" t="n">
-        <v>23.80344624098937</v>
+        <v>17.5761906698033</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.28415358062961</v>
+        <v>73.65390359748741</v>
       </c>
       <c r="D18" t="n">
-        <v>22.57748470243981</v>
+        <v>22.73949266818162</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.0861141660327</v>
+        <v>73.05147780881126</v>
       </c>
       <c r="D19" t="n">
-        <v>24.15254951178819</v>
+        <v>20.86303581245026</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.9717830374813</v>
+        <v>72.61203192666906</v>
       </c>
       <c r="D20" t="n">
-        <v>25.26378171209135</v>
+        <v>21.07052613960679</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.89632927250511</v>
+        <v>70.68817122132033</v>
       </c>
       <c r="D21" t="n">
-        <v>22.29115612423128</v>
+        <v>21.63489503969178</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.37017478038042</v>
+        <v>71.32295251093163</v>
       </c>
       <c r="D22" t="n">
-        <v>23.67858027603606</v>
+        <v>21.1551686426739</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.93047321306101</v>
+        <v>75.41557364843433</v>
       </c>
       <c r="D23" t="n">
-        <v>23.50045183797561</v>
+        <v>19.79624283152792</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>65.2716912410922</v>
+        <v>71.58899907908388</v>
       </c>
       <c r="D24" t="n">
-        <v>20.71003049667307</v>
+        <v>19.26982466636801</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.86542420899139</v>
+        <v>68.08048486187856</v>
       </c>
       <c r="D25" t="n">
-        <v>23.26600478013391</v>
+        <v>21.23202891653133</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.60416198005314</v>
+        <v>64.84621818491534</v>
       </c>
       <c r="D26" t="n">
-        <v>24.13498209195964</v>
+        <v>24.24189197092188</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.17947987374588</v>
+        <v>63.17426626322296</v>
       </c>
       <c r="D27" t="n">
-        <v>23.62808894922943</v>
+        <v>23.12162843270607</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.70364507914474</v>
+        <v>62.2034205088739</v>
       </c>
       <c r="D28" t="n">
-        <v>20.15894374816665</v>
+        <v>19.88637809571179</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.05953392000724</v>
+        <v>61.13718383211898</v>
       </c>
       <c r="D29" t="n">
-        <v>25.22584897557592</v>
+        <v>23.15378768588289</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.3449474013729</v>
+        <v>64.61947528623908</v>
       </c>
       <c r="D30" t="n">
-        <v>22.56205458512584</v>
+        <v>21.80175889273636</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.80868218295628</v>
+        <v>62.69981337924943</v>
       </c>
       <c r="D31" t="n">
-        <v>22.57963030679106</v>
+        <v>22.56752332039205</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.46833600441855</v>
+        <v>61.178137498772</v>
       </c>
       <c r="D32" t="n">
-        <v>25.99060605227417</v>
+        <v>21.65836278172681</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.86330767691019</v>
+        <v>56.98899607485345</v>
       </c>
       <c r="D33" t="n">
-        <v>19.48662762713372</v>
+        <v>22.29842628749775</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.09125928620774</v>
+        <v>58.16694159441326</v>
       </c>
       <c r="D34" t="n">
-        <v>20.79552453201877</v>
+        <v>21.23416438297599</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.24839337492237</v>
+        <v>58.89295827053844</v>
       </c>
       <c r="D35" t="n">
-        <v>25.21688212340487</v>
+        <v>20.57619654740855</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.64862489134872</v>
+        <v>55.82951656803509</v>
       </c>
       <c r="D36" t="n">
-        <v>23.23472715850714</v>
+        <v>22.69337429108543</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.87182920982186</v>
+        <v>56.46421499538075</v>
       </c>
       <c r="D37" t="n">
-        <v>19.57217096490839</v>
+        <v>21.09106960254811</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.07105912207705</v>
+        <v>57.15889647236346</v>
       </c>
       <c r="D38" t="n">
-        <v>22.91085325849853</v>
+        <v>23.24126508363777</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>57.320383034218</v>
+        <v>53.90174508773814</v>
       </c>
       <c r="D39" t="n">
-        <v>20.38643367512528</v>
+        <v>23.39201752376533</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.68162486311397</v>
+        <v>55.57394515717565</v>
       </c>
       <c r="D40" t="n">
-        <v>23.49645341999607</v>
+        <v>20.81492057720593</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.90412534813755</v>
+        <v>50.84255136231868</v>
       </c>
       <c r="D41" t="n">
-        <v>25.25117867282186</v>
+        <v>21.50027281786601</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.90249713428587</v>
+        <v>49.83358929972603</v>
       </c>
       <c r="D42" t="n">
-        <v>20.26782397596366</v>
+        <v>19.48261698983203</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.43620720759801</v>
+        <v>47.87863195666304</v>
       </c>
       <c r="D43" t="n">
-        <v>19.03266287978187</v>
+        <v>21.71261520343129</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.40814121532578</v>
+        <v>51.10028460831577</v>
       </c>
       <c r="D44" t="n">
-        <v>22.41749503584122</v>
+        <v>20.35345394832003</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.17333152140143</v>
+        <v>47.72276207745813</v>
       </c>
       <c r="D45" t="n">
-        <v>20.24488968085458</v>
+        <v>23.92061057159314</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>50.20796053564403</v>
+        <v>46.42871641519707</v>
       </c>
       <c r="D46" t="n">
-        <v>24.05416343039576</v>
+        <v>21.39586541792304</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.94474343377949</v>
+        <v>43.31465340069735</v>
       </c>
       <c r="D47" t="n">
-        <v>21.0462537520976</v>
+        <v>22.81273445998595</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>48.24347247933442</v>
+        <v>41.26609934646008</v>
       </c>
       <c r="D48" t="n">
-        <v>24.18766042763006</v>
+        <v>22.31839294156514</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>48.12808532824093</v>
+        <v>46.55136913220735</v>
       </c>
       <c r="D49" t="n">
-        <v>21.71379586427363</v>
+        <v>21.32192408137195</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.71669975526736</v>
+        <v>40.03927272244727</v>
       </c>
       <c r="D50" t="n">
-        <v>24.37105814662575</v>
+        <v>17.75360535133174</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>38.80546838960982</v>
+        <v>42.93804207605515</v>
       </c>
       <c r="D51" t="n">
-        <v>22.95879148998279</v>
+        <v>22.17557131845404</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.15493645307654</v>
+        <v>45.38113895810498</v>
       </c>
       <c r="D52" t="n">
-        <v>26.33799875962571</v>
+        <v>24.04867825453952</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.82269895700651</v>
+        <v>38.55579370867014</v>
       </c>
       <c r="D53" t="n">
-        <v>19.54181038991987</v>
+        <v>22.25245747926011</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.66064693376568</v>
+        <v>38.49157146606095</v>
       </c>
       <c r="D54" t="n">
-        <v>23.98105610181836</v>
+        <v>22.02371456674841</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>40.59610719073717</v>
+        <v>36.44096422957188</v>
       </c>
       <c r="D55" t="n">
-        <v>23.44474800359323</v>
+        <v>21.98603768002604</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.90097524236725</v>
+        <v>36.82223459800316</v>
       </c>
       <c r="D56" t="n">
-        <v>23.22256224356307</v>
+        <v>21.96810481413494</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.4281538675957</v>
+        <v>33.08577795643752</v>
       </c>
       <c r="D57" t="n">
-        <v>23.63071687346235</v>
+        <v>21.23262390842595</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.32957240663434</v>
+        <v>36.67677791358763</v>
       </c>
       <c r="D58" t="n">
-        <v>23.55586051610427</v>
+        <v>23.30190524155778</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.04312402823064</v>
+        <v>30.13123921148594</v>
       </c>
       <c r="D59" t="n">
-        <v>24.99123738038995</v>
+        <v>20.58248244916069</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.03055738902268</v>
+        <v>29.78167283971338</v>
       </c>
       <c r="D60" t="n">
-        <v>22.77696539090059</v>
+        <v>22.30191511376717</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.79972312075195</v>
+        <v>27.77018765677358</v>
       </c>
       <c r="D61" t="n">
-        <v>22.86546325944208</v>
+        <v>19.80451517420475</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.36528292663711</v>
+        <v>28.18531802079062</v>
       </c>
       <c r="D62" t="n">
-        <v>22.64318987391703</v>
+        <v>25.12095966501711</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.50887690068984</v>
+        <v>32.02648990700858</v>
       </c>
       <c r="D63" t="n">
-        <v>20.77202832203172</v>
+        <v>20.67108517678774</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.21707739785646</v>
+        <v>26.83793768017932</v>
       </c>
       <c r="D64" t="n">
-        <v>22.01933819176149</v>
+        <v>22.3858047107829</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.23751247913528</v>
+        <v>28.46060654015402</v>
       </c>
       <c r="D65" t="n">
-        <v>19.92335381236816</v>
+        <v>23.06039814321782</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.17246337501545</v>
+        <v>27.34749700635596</v>
       </c>
       <c r="D66" t="n">
-        <v>23.37222523641508</v>
+        <v>22.80038182747822</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.23158291094589</v>
+        <v>27.10240758575756</v>
       </c>
       <c r="D67" t="n">
-        <v>22.32804913249987</v>
+        <v>22.2830248648806</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>27.04909003581714</v>
+        <v>25.22240632516617</v>
       </c>
       <c r="D68" t="n">
-        <v>25.62472145893642</v>
+        <v>19.76608139368124</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.33657565721036</v>
+        <v>21.66623539696144</v>
       </c>
       <c r="D69" t="n">
-        <v>22.05180797590962</v>
+        <v>23.56452507445546</v>
       </c>
     </row>
   </sheetData>
